--- a/planning/orderlist.xlsx
+++ b/planning/orderlist.xlsx
@@ -1,26 +1,94 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\kristof\Development\autonomous-plane\planning\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9F9720-2C0E-4F92-9697-E19F3D865381}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="electrics" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+  <si>
+    <t>Piece</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://store.emlid.com/product/navio2/</t>
+  </si>
+  <si>
+    <t>Navio 2</t>
+  </si>
+  <si>
+    <t>Navio2 power module</t>
+  </si>
+  <si>
+    <t>Navio2 wire pack</t>
+  </si>
+  <si>
+    <t>Navio2 GPS antenna</t>
+  </si>
+  <si>
+    <t>PPM encoder</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Needed for the Turnigy 9x receiver</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/ZHITING-PPM-Encoder-10-poligem-Eingangs-Ausgangskabel/dp/B089SJW5TS/ref=sr_1_3?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=ppm+encoder&amp;qid=1614527124&amp;sr=8-3 or https://www.amazon.de/RUIZHI-Encoder-Pixhawk-Megapirate-Controller/dp/B08211SVRD/ref=sr_1_2?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=ppm+encoder&amp;qid=1614527124&amp;sr=8-2</t>
+  </si>
+  <si>
+    <t>Telemetry module</t>
+  </si>
+  <si>
+    <t>https://www.banggood.com/New-Upgraded-V2_0-3DR-Radio-Telemetry-433MHZ-915MHZ-Data-Transmission-Module-For-Android-Smartphone-APM-Pixhawk-PX4-p-1304758.html?cur_warehouse=CN&amp;ID=510651&amp;rmmds=search</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +96,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -45,14 +154,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Explanatory Text" xfId="4" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +496,225 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>168</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>37</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="6">
+        <f>SUM(D3:D20)</f>
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>